--- a/仕様書/作業メモ.xlsx
+++ b/仕様書/作業メモ.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirit\source\repos\ECS-Entity-Component-System-\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirit\source\repos\Wire-Action\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1F44FF-1B8E-4D0D-B7EE-BF5B9A3D318C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2B84C6-F702-4E61-B0F7-4724F89504C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1035" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="やること" sheetId="1" r:id="rId1"/>
+    <sheet name="プレイヤー" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>簡易的なイベントコールバックの管理</t>
     <rPh sb="0" eb="3">
@@ -199,6 +200,86 @@
     <rPh sb="0" eb="4">
       <t>ユウセンドジュン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動処理</t>
+    <rPh sb="0" eb="4">
+      <t>イドウショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ処理</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイングワイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダイブワイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態用</t>
+    <rPh sb="0" eb="3">
+      <t>ジョウタイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>座標系</t>
+    <rPh sb="0" eb="2">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動ベクトル</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃クラス</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワイヤークラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rigit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>collision</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gameobject</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -526,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -569,6 +650,9 @@
       <c r="B6" t="s">
         <v>2</v>
       </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
       <c r="H6" t="s">
         <v>18</v>
       </c>
@@ -580,6 +664,9 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
       <c r="M7" t="s">
         <v>4</v>
       </c>
@@ -588,6 +675,9 @@
       <c r="B8" t="s">
         <v>4</v>
       </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
       <c r="M8" t="s">
         <v>5</v>
       </c>
@@ -675,6 +765,76 @@
     <row r="19" spans="2:13">
       <c r="B19" t="s">
         <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{933BDCA4-DD7E-4A1D-96A5-2DCEE4754A2B}">
+  <dimension ref="B3:I8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="3" spans="2:9">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="G8" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
